--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3299702.018542399</v>
+        <v>3293980.406574512</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.58283623</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095099</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>399.9213269240014</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>322.7907006162803</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>4.669905662785313</v>
       </c>
       <c r="T5" t="n">
-        <v>146.1500257421541</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.5423460032218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>311.3388251363031</v>
       </c>
       <c r="H8" t="n">
-        <v>115.1187825524128</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V10" t="n">
-        <v>162.5776147681365</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>178.7895158934438</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>122.44245910773</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1824,16 +1824,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>119.9055691882086</v>
+        <v>138.3467445476588</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>74.75769145492316</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>53.75581462508175</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>36.99190655331452</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>110.4892783404654</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.7640381573239</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>51.06561173382029</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>139.317913099352</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>119.2085602918396</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>24.92146316148442</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3006,19 +3006,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>91.65341893139446</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>6.38006817584793</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>23.92604697627008</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873202</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>220.3929331600069</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>209.567519332071</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>144.7801363297476</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>163.689844124971</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292623</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247756</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734100762</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>113.5103646250816</v>
       </c>
       <c r="H46" t="n">
-        <v>106.2080141416396</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.3524204098382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>941.2608351981287</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C2" t="n">
-        <v>941.2608351981287</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>857.6155747668879</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>471.8273221686437</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1667.495248729323</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1314.726593459209</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X2" t="n">
-        <v>941.2608351981287</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y2" t="n">
-        <v>941.2608351981287</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.9192350259435</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990.5839652830421</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830421</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2692.432014591167</v>
       </c>
       <c r="T5" t="n">
-        <v>2318.316625234447</v>
+        <v>2692.432014591167</v>
       </c>
       <c r="U5" t="n">
-        <v>2064.554839872539</v>
+        <v>2438.670229229258</v>
       </c>
       <c r="V5" t="n">
-        <v>1733.491952528968</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W5" t="n">
-        <v>1380.723297258854</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.723297258854</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y5" t="n">
-        <v>990.5839652830421</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="6">
@@ -4643,19 +4643,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>261.391796148808</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>261.391796148808</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W7" t="n">
-        <v>261.391796148808</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="X7" t="n">
-        <v>261.391796148808</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1152.640269254486</v>
+        <v>744.3346612638211</v>
       </c>
       <c r="C8" t="n">
-        <v>1152.640269254486</v>
+        <v>375.3721443234094</v>
       </c>
       <c r="D8" t="n">
-        <v>1152.640269254486</v>
+        <v>375.3721443234094</v>
       </c>
       <c r="E8" t="n">
-        <v>1152.640269254486</v>
+        <v>375.3721443234094</v>
       </c>
       <c r="F8" t="n">
-        <v>741.6543644648787</v>
+        <v>368.4266435742059</v>
       </c>
       <c r="G8" t="n">
-        <v>323.6905563630655</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4840,16 +4840,16 @@
         <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>1542.779601230298</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y8" t="n">
-        <v>1152.640269254486</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4983,28 +4983,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5017,55 +5017,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>799.5135445647354</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1664.03236021809</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2642.582663047919</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3189.361480106701</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
         <v>4667.761053946815</v>
@@ -5074,19 +5074,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>557.6043516563539</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C13" t="n">
-        <v>388.668168728447</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D13" t="n">
-        <v>388.668168728447</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E13" t="n">
-        <v>388.668168728447</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5226,25 +5226,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1685.917538262794</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1464.15092283232</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1175.048055957963</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>920.3635677520765</v>
       </c>
       <c r="W13" t="n">
-        <v>785.5939025543712</v>
+        <v>630.9463977151159</v>
       </c>
       <c r="X13" t="n">
-        <v>557.6043516563539</v>
+        <v>630.9463977151159</v>
       </c>
       <c r="Y13" t="n">
-        <v>557.6043516563539</v>
+        <v>410.1538185715858</v>
       </c>
     </row>
     <row r="14">
@@ -5275,40 +5275,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
         <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2504.619866888352</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N14" t="n">
-        <v>3484.372139114998</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O14" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604874</v>
@@ -5348,22 +5348,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>412.4103109586945</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C16" t="n">
-        <v>243.4741280307875</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D16" t="n">
-        <v>243.4741280307875</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1042.840905830482</v>
+        <v>1024.21345597245</v>
       </c>
       <c r="W16" t="n">
-        <v>1042.840905830482</v>
+        <v>734.7962859354897</v>
       </c>
       <c r="X16" t="n">
-        <v>814.8513549324643</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y16" t="n">
-        <v>594.0587757889342</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001577</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M17" t="n">
-        <v>2337.214217867999</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O17" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5585,22 +5585,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>855.6340846510827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>686.6979017231758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1674.827124689058</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1420.142636483171</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W19" t="n">
-        <v>1130.72546644621</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X19" t="n">
-        <v>1076.426663794613</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y19" t="n">
-        <v>855.6340846510827</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5758,46 +5758,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1364.144379432265</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>1897.67628410419</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2877.428556330836</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660291</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5831,13 +5831,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>972.7495048756253</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C22" t="n">
-        <v>803.8133219477185</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D22" t="n">
-        <v>653.6966825353827</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E22" t="n">
         <v>653.6966825353827</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1918.977903929639</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1918.977903929639</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1629.875037055282</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V22" t="n">
-        <v>1375.190548849395</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W22" t="n">
-        <v>1375.190548849395</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="X22" t="n">
-        <v>1375.190548849395</v>
+        <v>1341.455177601548</v>
       </c>
       <c r="Y22" t="n">
-        <v>1154.397969705865</v>
+        <v>1120.662598458018</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
         <v>1646.988141143014</v>
@@ -5977,40 +5977,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839481</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074202</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427196</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>1923.729615463053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2877.428556330836</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,13 +6068,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3698.82799080924</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C25" t="n">
-        <v>3529.891807881333</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D25" t="n">
-        <v>3379.775168468997</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E25" t="n">
-        <v>3231.862074886604</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>3084.972127388694</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.051722419721</v>
+        <v>1904.762040110946</v>
       </c>
       <c r="S25" t="n">
-        <v>4586.365838246547</v>
+        <v>1904.762040110946</v>
       </c>
       <c r="T25" t="n">
-        <v>4364.599222816073</v>
+        <v>1904.762040110946</v>
       </c>
       <c r="U25" t="n">
-        <v>4075.496355941717</v>
+        <v>1904.762040110946</v>
       </c>
       <c r="V25" t="n">
-        <v>3820.81186773583</v>
+        <v>1650.077551905059</v>
       </c>
       <c r="W25" t="n">
-        <v>3820.81186773583</v>
+        <v>1360.660381868098</v>
       </c>
       <c r="X25" t="n">
-        <v>3820.81186773583</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="Y25" t="n">
-        <v>3820.81186773583</v>
+        <v>911.8782518265509</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1732.058578925875</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>2265.5904835978</v>
       </c>
       <c r="N26" t="n">
-        <v>3070.887536710052</v>
+        <v>2812.369300656582</v>
       </c>
       <c r="O26" t="n">
-        <v>3865.782086996752</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.55645335393</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3638.849099742985</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C28" t="n">
-        <v>3469.912916815078</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>3469.912916815078</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>3329.187752068258</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>4586.365838246546</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>4364.599222816072</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>4364.599222816072</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>4109.914734610185</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>3820.497564573225</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>3820.497564573225</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>3820.497564573225</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972662</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2016.310259422545</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N29" t="n">
-        <v>2996.062531649191</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.39320666029</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6557,25 +6557,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3576.027882970986</v>
+        <v>825.859557377715</v>
       </c>
       <c r="C31" t="n">
-        <v>3455.615195807512</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D31" t="n">
-        <v>3455.615195807512</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E31" t="n">
-        <v>3307.702102225119</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F31" t="n">
-        <v>3160.812154727209</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>3160.812154727209</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945066</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177248</v>
+        <v>1931.170270992093</v>
       </c>
       <c r="S31" t="n">
-        <v>4496.535381004074</v>
+        <v>1739.48438681892</v>
       </c>
       <c r="T31" t="n">
-        <v>4274.7687655736</v>
+        <v>1517.717771388445</v>
       </c>
       <c r="U31" t="n">
-        <v>3985.665898699243</v>
+        <v>1517.717771388445</v>
       </c>
       <c r="V31" t="n">
-        <v>3985.665898699243</v>
+        <v>1517.717771388445</v>
       </c>
       <c r="W31" t="n">
-        <v>3985.665898699243</v>
+        <v>1228.300601351485</v>
       </c>
       <c r="X31" t="n">
-        <v>3757.676347801226</v>
+        <v>1228.300601351485</v>
       </c>
       <c r="Y31" t="n">
-        <v>3757.676347801226</v>
+        <v>1007.508022207955</v>
       </c>
     </row>
     <row r="32">
@@ -6688,37 +6688,37 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1682.725100522033</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862919</v>
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
         <v>794.200663232024</v>
@@ -6803,16 +6803,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>652.1769083099661</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C34" t="n">
-        <v>652.1769083099661</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>502.0602688976303</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>502.0602688976303</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>502.0602688976303</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>334.3574322723492</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>188.140245490207</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6861,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862231</v>
+        <v>1949.898952795766</v>
       </c>
       <c r="T34" t="n">
-        <v>1644.746393431757</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="U34" t="n">
-        <v>1355.6435265574</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V34" t="n">
-        <v>1100.959038351514</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W34" t="n">
-        <v>1100.959038351514</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X34" t="n">
-        <v>872.9694874534962</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y34" t="n">
-        <v>652.1769083099661</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6925,40 +6925,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001586</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2628.734306600802</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3362.809616117416</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,13 +7016,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>854.4007383484569</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>854.4007383484569</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.657581931529</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.890966501056</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1288.206478295169</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1264.038754076714</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>1036.049203178697</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1036.049203178697</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7153,73 +7153,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3070.887536710052</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.393206660291</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7271,16 +7271,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3478.631630764826</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>3478.631630764826</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>3328.514991352491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>3328.514991352491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>3328.514991352491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4586.365838246547</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>4586.365838246547</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>4586.365838246547</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>4331.681350040661</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>4109.062225636613</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>3881.072674738596</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>3660.280095595066</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888612</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427193</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L41" t="n">
-        <v>1682.725100522033</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>506.8321102045701</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C43" t="n">
-        <v>506.8321102045701</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D43" t="n">
-        <v>506.8321102045701</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E43" t="n">
-        <v>506.8321102045701</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F43" t="n">
-        <v>360.5895482553301</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="G43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>909.27315417834</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>909.27315417834</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>909.27315417834</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>688.4805750348098</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7627,73 +7627,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277723</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563071</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1971.087962216424</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2504.619866888348</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3484.372139114993</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750061</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107238</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939018</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193645</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232029</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454344</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008797</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>783.6965010464401</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="C46" t="n">
-        <v>614.7603181185332</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="D46" t="n">
-        <v>614.7603181185332</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="E46" t="n">
-        <v>614.7603181185332</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="F46" t="n">
-        <v>467.8703706206228</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="G46" t="n">
-        <v>300.1675339953417</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300492</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442058</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927015</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104701</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.657581931527</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.657581931527</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1475.554715057171</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1475.554715057171</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>1186.13754502021</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>1186.13754502021</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y46" t="n">
-        <v>965.3449658766798</v>
+        <v>391.866433243363</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>183.0848540075445</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8935,13 +8935,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>89.52456338961952</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>89.5245633896194</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>57.67224444723735</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>315.1679217109319</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9406,25 +9406,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>297.8289162490807</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9649,19 +9649,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>411.0304280899005</v>
+        <v>344.7025836476837</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,25 +9880,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>176.2173930448424</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>294.8707872801652</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10123,13 +10123,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>260.9678829613757</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>315.167921710932</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>295.4822118493993</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>189.1883762200324</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10834,19 +10834,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>185.3870697685884</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564198</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>295.4822118493993</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,25 +11302,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>89.52456338962838</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>10.97950943799813</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>164.080539228861</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>132.2320741356194</v>
+        <v>113.7908987761692</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>171.9538407639554</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>152.7771187781274</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>115.2203770485717</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.0679420246134</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>37.86654093622704</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>92.48912964370378</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>7.116049547217216</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>48.03826080678819</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>64.0106895085629</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>4.699001478443662</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>183.388957155594</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>262.5969513603209</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>66.13006517658408</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>16.14213605696619</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0.640911693183682</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2.335964134057178</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>52.51544363394667</v>
       </c>
       <c r="H46" t="n">
-        <v>38.54700077268119</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004747</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>715719.8211196325</v>
+        <v>715719.8211196326</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>715719.8211196325</v>
+        <v>715719.8211196326</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>715719.8211196323</v>
+        <v>715719.8211196325</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>715719.8211196325</v>
+        <v>715719.8211196326</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>715719.8211196327</v>
+        <v>715719.8211196325</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>715719.8211196326</v>
+        <v>715719.8211196325</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>715719.8211196326</v>
+        <v>715719.8211196325</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
+        <v>694893.1270522206</v>
+      </c>
+      <c r="F2" t="n">
+        <v>694893.1270522204</v>
+      </c>
+      <c r="G2" t="n">
+        <v>694893.1270522204</v>
+      </c>
+      <c r="H2" t="n">
+        <v>694893.1270522203</v>
+      </c>
+      <c r="I2" t="n">
+        <v>694893.1270522206</v>
+      </c>
+      <c r="J2" t="n">
+        <v>694893.1270522205</v>
+      </c>
+      <c r="K2" t="n">
+        <v>694893.1270522206</v>
+      </c>
+      <c r="L2" t="n">
         <v>694893.1270522207</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
+        <v>694893.1270522207</v>
+      </c>
+      <c r="N2" t="n">
         <v>694893.1270522205</v>
       </c>
-      <c r="G2" t="n">
-        <v>694893.1270522205</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>694893.1270522206</v>
       </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>694893.1270522204</v>
-      </c>
-      <c r="J2" t="n">
-        <v>694893.1270522207</v>
-      </c>
-      <c r="K2" t="n">
-        <v>694893.1270522202</v>
-      </c>
-      <c r="L2" t="n">
-        <v>694893.1270522206</v>
-      </c>
-      <c r="M2" t="n">
-        <v>694893.1270522206</v>
-      </c>
-      <c r="N2" t="n">
-        <v>694893.1270522204</v>
-      </c>
-      <c r="O2" t="n">
-        <v>694893.1270522207</v>
-      </c>
-      <c r="P2" t="n">
-        <v>694893.1270522206</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="F4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="F4" t="n">
-        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
         <v>21619.60799709188</v>
@@ -26438,28 +26438,28 @@
         <v>21619.60799709188</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709198</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26472,37 +26472,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146622.0050391355</v>
+        <v>-146622.005039136</v>
       </c>
       <c r="C6" t="n">
-        <v>443345.8741754086</v>
+        <v>443345.8741754087</v>
       </c>
       <c r="D6" t="n">
         <v>443345.8741754085</v>
       </c>
       <c r="E6" t="n">
-        <v>-150487.4131919915</v>
+        <v>-151159.3680942494</v>
       </c>
       <c r="F6" t="n">
-        <v>576890.0008014151</v>
+        <v>576218.0458991571</v>
       </c>
       <c r="G6" t="n">
-        <v>576890.0008014151</v>
+        <v>576218.0458991571</v>
       </c>
       <c r="H6" t="n">
-        <v>576890.0008014152</v>
+        <v>576218.0458991568</v>
       </c>
       <c r="I6" t="n">
-        <v>576890.0008014151</v>
+        <v>576218.0458991573</v>
       </c>
       <c r="J6" t="n">
-        <v>400466.7816088223</v>
+        <v>399794.8267065642</v>
       </c>
       <c r="K6" t="n">
-        <v>576890.0008014147</v>
+        <v>576218.0458991573</v>
       </c>
       <c r="L6" t="n">
-        <v>576890.0008014152</v>
+        <v>576218.0458991574</v>
       </c>
       <c r="M6" t="n">
-        <v>447247.6859624704</v>
+        <v>446575.7310602126</v>
       </c>
       <c r="N6" t="n">
-        <v>576890.0008014149</v>
+        <v>576218.0458991572</v>
       </c>
       <c r="O6" t="n">
-        <v>576890.0008014153</v>
+        <v>576218.0458991573</v>
       </c>
       <c r="P6" t="n">
-        <v>576890.0008014161</v>
+        <v>576218.0458991571</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-7.745093072428275e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>6.954718817710045</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>4.961557853854572</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.49548950841407</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>166.0457989735918</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>169.7458071461862</v>
       </c>
       <c r="T5" t="n">
-        <v>70.29829461550369</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724696</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.042307348873</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>102.4453448844919</v>
       </c>
       <c r="H8" t="n">
-        <v>208.8039902119444</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V10" t="n">
-        <v>89.56002855569147</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.3663749167642e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681591</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284466</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974797</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953982</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.28113760038</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623182</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574981</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095011</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099046</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746403</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781682</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563564</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806935</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451117</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345272</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752244</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026501</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353151</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138788</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233465</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837915</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970241</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987482</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238309</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898482</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311877</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742009</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297388</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098815</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316427</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.724773788311</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023085996</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802165</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895878</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712201</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.2475727055303</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112282</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>520.276140562945</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>628.4456792198461</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>597.5775642778385</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>513.2623588395693</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>867.4697571238434</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>753.4190306414129</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>963.3322635028118</v>
+        <v>897.0044190605952</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>631.8075074371745</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>802.9237881683842</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>769.0208838495947</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>713.9299079303039</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>751.0723262417313</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>741.4902116329437</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>693.4400706568074</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>684.4630967757917</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>323.786018525724</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>751.0723262417313</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407857</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265642</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427814</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302254</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248943</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>597.5775642778462</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193707</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037187</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222432</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453598336</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609561</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340046</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013282</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004582</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525797</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127267</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.578416613066</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443192</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701976</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934833</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675396</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226393</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.95707114511</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789337</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3293980.406574512</v>
+        <v>3297385.897698962</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836251</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095082</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>399.9213269240014</v>
+        <v>164.8521280262656</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>6.59601561836874</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>59.66385641544537</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>85.94059021315033</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>4.669905662785313</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>101.4850921198536</v>
       </c>
       <c r="X7" t="n">
-        <v>128.7835007017902</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>311.3388251363031</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>186.2507170030314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3743261851595</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>54.47555601903363</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873203</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292541</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881755</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851108</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247718</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093657</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414545</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>28.87187436016102</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143207</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>178.7895158934438</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873203</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292541</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881755</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851108</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247718</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734093657</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414545</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>7.60108101545368</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,7 +1824,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>138.3467445476588</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873203</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292648</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881755</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851108</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247718</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734093657</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414545</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492316</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004706</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660443454</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>110.4892783404654</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>51.06561173382029</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>37.38100496017498</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>74.75769145492406</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968146</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.92146316148442</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3006,16 +3006,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>6.38006817584793</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968146</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>84.69473660442847</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873202</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>209.567519332071</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.689844124971</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>104.0438938896183</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>113.5103646250816</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>124.8952501715943</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1215.881273373638</v>
+        <v>1160.852583904132</v>
       </c>
       <c r="C2" t="n">
-        <v>1215.881273373638</v>
+        <v>791.8900669637198</v>
       </c>
       <c r="D2" t="n">
-        <v>857.6155747668879</v>
+        <v>791.8900669637198</v>
       </c>
       <c r="E2" t="n">
-        <v>471.8273221686437</v>
+        <v>791.8900669637198</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X2" t="n">
-        <v>1992.620445413572</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y2" t="n">
-        <v>1602.48111343776</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="3">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.8624625746712</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="X4" t="n">
-        <v>667.8624625746712</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y4" t="n">
-        <v>667.8624625746712</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>951.4492202526055</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>565.6609676543612</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>154.6750628647537</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>140.7516588033446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>140.7516588033446</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2692.432014591167</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2692.432014591167</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2438.670229229258</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2107.607341885688</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2107.607341885688</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2107.607341885688</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.607341885688</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036446</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005475</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>184.0273259635869</v>
+        <v>625.6187901459763</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>397.6292392479589</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>744.3346612638211</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>375.3721443234094</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>375.3721443234094</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>375.3721443234094</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>368.4266435742059</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564834</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>1521.073833303755</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>1130.934501327943</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5041,28 +5041,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277741</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563075</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1557.603359811486</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483413</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542198</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232727</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679675</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188664</v>
       </c>
       <c r="R11" t="n">
         <v>4778.05172241972</v>
@@ -5074,19 +5074,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5096,64 +5096,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973193</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161923</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.205333554941</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494856</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763705</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089886</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468562</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390124</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193607</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320276</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454333</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008789</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426846</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.46090290295</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>410.1538185715858</v>
+        <v>270.9417306852447</v>
       </c>
       <c r="C13" t="n">
-        <v>410.1538185715858</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D13" t="n">
-        <v>410.1538185715858</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839441</v>
@@ -5199,52 +5199,52 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953304</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442075</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927045</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.79607059812</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518534</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952194</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.34346610471</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.34346610471</v>
       </c>
       <c r="S13" t="n">
-        <v>1685.917538262794</v>
+        <v>1956.34346610471</v>
       </c>
       <c r="T13" t="n">
-        <v>1464.15092283232</v>
+        <v>1734.576850674236</v>
       </c>
       <c r="U13" t="n">
-        <v>1175.048055957963</v>
+        <v>1445.47398379988</v>
       </c>
       <c r="V13" t="n">
-        <v>920.3635677520765</v>
+        <v>1190.789495593993</v>
       </c>
       <c r="W13" t="n">
-        <v>630.9463977151159</v>
+        <v>901.3723255570319</v>
       </c>
       <c r="X13" t="n">
-        <v>630.9463977151159</v>
+        <v>673.3827746590146</v>
       </c>
       <c r="Y13" t="n">
-        <v>410.1538185715858</v>
+        <v>452.5901955154844</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089251</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277741</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563075</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1971.087962216432</v>
       </c>
       <c r="M14" t="n">
-        <v>2593.249184644074</v>
+        <v>2504.619866888359</v>
       </c>
       <c r="N14" t="n">
-        <v>3573.001456870721</v>
+        <v>3051.398683947144</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3554.371154826483</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4267.726242273431</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188664</v>
       </c>
       <c r="R14" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,64 +5333,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973193</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161923</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.205333554941</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494856</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763705</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089886</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468562</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390124</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193607</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320276</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454333</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008789</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426846</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.46090290295</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C16" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.6836668953304</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442075</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927045</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.79607059812</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518534</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952194</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.34346610471</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.34346610471</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V16" t="n">
-        <v>1024.21345597245</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W16" t="n">
-        <v>734.7962859354897</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X16" t="n">
-        <v>506.8067350374723</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.8067350374723</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001577</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277741</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563075</v>
       </c>
       <c r="L17" t="n">
-        <v>1614.698881814246</v>
+        <v>1971.087962216432</v>
       </c>
       <c r="M17" t="n">
-        <v>2593.249184644074</v>
+        <v>2504.619866888359</v>
       </c>
       <c r="N17" t="n">
-        <v>3573.001456870721</v>
+        <v>3297.750360443156</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322495</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679675</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188664</v>
       </c>
       <c r="R17" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,64 +5570,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973193</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161923</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.205333554941</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494856</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763705</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089886</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468562</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390124</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193607</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320152</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454333</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008789</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426846</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.46090290295</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5673,52 +5673,52 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.6836668953304</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442075</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927045</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.79607059812</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518534</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952194</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.34346610471</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862238</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>909.27315417834</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413794</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>391.8664332433621</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998319</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3944.053400686433</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4338.827767043611</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5943,19 +5943,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1453.060509258584</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1453.060509258584</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>1341.455177601548</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>1120.662598458018</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,67 +5974,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>730.2297869963112</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>561.2936040684043</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>411.1769646560685</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
         <v>263.2638710736754</v>
@@ -6138,13 +6138,13 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1904.762040110946</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1904.762040110946</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1904.762040110946</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U25" t="n">
-        <v>1904.762040110946</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V25" t="n">
-        <v>1650.077551905059</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W25" t="n">
-        <v>1360.660381868098</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X25" t="n">
-        <v>1132.670830970081</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y25" t="n">
-        <v>911.8782518265509</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,7 +6211,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
@@ -6223,55 +6223,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1732.058578925875</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2265.5904835978</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>2812.369300656582</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
-        <v>3692.333950986037</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6420,16 +6420,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6463,52 +6463,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2883.993034926781</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3763.957685256236</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6560,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>825.859557377715</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>656.9233744498081</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1931.170270992093</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1739.48438681892</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1517.717771388445</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1517.717771388445</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1517.717771388445</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>1228.300601351485</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>1228.300601351485</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>1007.508022207955</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L32" t="n">
-        <v>1586.925993846824</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2120.457898518748</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N32" t="n">
-        <v>2667.236715577531</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6776,37 +6776,37 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>264.4972173763014</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1949.898952795766</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1728.132337365293</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1439.029470490936</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1184.344982285049</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>894.9278122480886</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>666.9382613500712</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>446.1456822065411</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6925,16 +6925,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
@@ -6952,22 +6952,22 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,13 +7119,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
         <v>1270.093287563029</v>
@@ -7153,7 +7153,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143013</v>
@@ -7162,10 +7162,10 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001583</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7180,22 +7180,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O38" t="n">
-        <v>3517.878731871643</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
         <v>4778.05172241972</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839441</v>
@@ -7259,28 +7259,28 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
@@ -7359,19 +7359,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
         <v>498.0020784221642</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551604</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7411,25 +7411,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>416.1091927888612</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1070.832524924161</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2055.398642844494</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903276</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>3876.027181978647</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4270.801548335825</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188665</v>
@@ -7438,25 +7438,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>260.9043113423046</v>
+        <v>368.3587133864212</v>
       </c>
       <c r="C43" t="n">
-        <v>260.9043113423046</v>
+        <v>368.3587133864212</v>
       </c>
       <c r="D43" t="n">
-        <v>260.9043113423046</v>
+        <v>368.3587133864212</v>
       </c>
       <c r="E43" t="n">
-        <v>260.9043113423046</v>
+        <v>368.3587133864212</v>
       </c>
       <c r="F43" t="n">
-        <v>260.9043113423046</v>
+        <v>368.3587133864212</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>200.6558767611401</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839441</v>
@@ -7602,19 +7602,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9043113423046</v>
+        <v>550.0071782166609</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7730,7 +7730,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320243</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>210.2179684131233</v>
+        <v>876.4469737784534</v>
       </c>
       <c r="C46" t="n">
-        <v>210.2179684131233</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D46" t="n">
-        <v>210.2179684131233</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E46" t="n">
-        <v>210.2179684131233</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F46" t="n">
-        <v>210.2179684131233</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839441</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X46" t="n">
-        <v>391.866433243363</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y46" t="n">
-        <v>391.866433243363</v>
+        <v>1058.095438608693</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028829</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476666</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8935,22 +8935,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>89.52456338961952</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>139.3563597571204</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9169,13 +9169,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>57.67224444723735</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>248.840077268699</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>67.53663776704306</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>344.7025836476837</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>176.2173930448424</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>201.9664098701126</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>315.167921710932</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561023</v>
       </c>
       <c r="L32" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7011105564198</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.9990175570114</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>136.249989997129</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>138.3749467384668</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983792</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004706</v>
       </c>
       <c r="S13" t="n">
-        <v>10.97950943799813</v>
+        <v>189.7690253314418</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143207</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983792</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004706</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>182.1679443159881</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>113.7908987761692</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23907,10 +23907,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7550149143207</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983792</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>105.0742887270072</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>115.2203770485717</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>37.86654093622704</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>182.1679443159942</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>92.48912964370378</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>64.0106895085629</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.388957155594</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>16.14213605696619</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>2.335964134057178</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>40.71112102470251</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>52.51544363394667</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>93.68940318050046</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>715719.8211196326</v>
+        <v>715719.8211196325</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>715719.8211196326</v>
+        <v>715719.8211196325</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>715719.8211196326</v>
+        <v>715719.8211196325</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>715719.8211196326</v>
+        <v>715719.8211196325</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>715719.8211196325</v>
+        <v>715719.8211196326</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
+        <v>694893.1270522212</v>
+      </c>
+      <c r="F2" t="n">
+        <v>694893.1270522212</v>
+      </c>
+      <c r="G2" t="n">
+        <v>694893.1270522211</v>
+      </c>
+      <c r="H2" t="n">
         <v>694893.1270522206</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>694893.1270522204</v>
       </c>
-      <c r="G2" t="n">
-        <v>694893.1270522204</v>
-      </c>
-      <c r="H2" t="n">
-        <v>694893.1270522203</v>
-      </c>
-      <c r="I2" t="n">
-        <v>694893.1270522206</v>
-      </c>
       <c r="J2" t="n">
-        <v>694893.1270522205</v>
+        <v>694893.1270522207</v>
       </c>
       <c r="K2" t="n">
         <v>694893.1270522206</v>
       </c>
       <c r="L2" t="n">
-        <v>694893.1270522207</v>
+        <v>694893.1270522205</v>
       </c>
       <c r="M2" t="n">
         <v>694893.1270522207</v>
@@ -26352,10 +26352,10 @@
         <v>694893.1270522205</v>
       </c>
       <c r="O2" t="n">
-        <v>694893.1270522206</v>
+        <v>694893.1270522203</v>
       </c>
       <c r="P2" t="n">
-        <v>694893.1270522204</v>
+        <v>694893.1270522203</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934093</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>-9.448575568724966e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709167</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21619.60799709161</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709162</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709186</v>
-      </c>
-      <c r="F4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709188</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="N4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21619.60799709186</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709186</v>
@@ -26475,34 +26475,34 @@
         <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371372</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96383.51825371372</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371372</v>
+      </c>
+      <c r="H5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="G5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
@@ -26524,46 +26524,46 @@
         <v>-146622.005039136</v>
       </c>
       <c r="C6" t="n">
+        <v>443345.8741754084</v>
+      </c>
+      <c r="D6" t="n">
         <v>443345.8741754087</v>
       </c>
-      <c r="D6" t="n">
-        <v>443345.8741754085</v>
-      </c>
       <c r="E6" t="n">
-        <v>-151159.3680942494</v>
+        <v>-150554.6086822192</v>
       </c>
       <c r="F6" t="n">
-        <v>576218.0458991571</v>
+        <v>576822.8053111901</v>
       </c>
       <c r="G6" t="n">
-        <v>576218.0458991571</v>
+        <v>576822.80531119</v>
       </c>
       <c r="H6" t="n">
-        <v>576218.0458991568</v>
+        <v>576822.8053111919</v>
       </c>
       <c r="I6" t="n">
-        <v>576218.0458991573</v>
+        <v>576822.8053111891</v>
       </c>
       <c r="J6" t="n">
-        <v>399794.8267065642</v>
+        <v>400399.5861185964</v>
       </c>
       <c r="K6" t="n">
-        <v>576218.0458991573</v>
+        <v>576822.8053111894</v>
       </c>
       <c r="L6" t="n">
-        <v>576218.0458991574</v>
+        <v>576822.8053111893</v>
       </c>
       <c r="M6" t="n">
-        <v>446575.7310602126</v>
+        <v>447180.4904722448</v>
       </c>
       <c r="N6" t="n">
-        <v>576218.0458991572</v>
+        <v>576822.8053111893</v>
       </c>
       <c r="O6" t="n">
-        <v>576218.0458991573</v>
+        <v>576822.805311189</v>
       </c>
       <c r="P6" t="n">
-        <v>576218.0458991571</v>
+        <v>576822.805311189</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593302</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593302</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593302</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762149</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-2.053589189975546e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.954718817710045</v>
+        <v>242.0239177154458</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>245.5416277054593</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>166.0457989735918</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.99072603171092</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>169.7458071461862</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27779,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>185.0379062167374</v>
       </c>
       <c r="X7" t="n">
-        <v>96.92615468724696</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>102.4453448844919</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>30.19760335462638</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>6.771212764859371</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>231.8063182229441</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681611</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844682</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974805</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054954</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003827</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623216</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490575019</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095048</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099083</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746433</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781704</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563578</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806982</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451126</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345289</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502574</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798538</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752282</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353169</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138812</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233368</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837943</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970268</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002941</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987496</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905546</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.5396634623833</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898528</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.154213684046222</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430544</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311885</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742037</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297395</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702031</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098829</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316442</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883125</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.768002308601</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802177</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895886</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712242</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553047</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780298</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681611</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844682</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974805</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054954</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003827</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623216</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490575019</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095048</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099083</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746433</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781704</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563578</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806982</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451126</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345289</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502574</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798538</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752282</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353169</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138812</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233368</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837943</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970268</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002941</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987496</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905546</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.5396634623833</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898528</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.154213684046222</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430544</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311885</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742037</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297395</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702031</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098829</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316442</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883125</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.768002308601</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802177</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895886</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712242</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553047</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780298</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681611</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844682</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974805</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054954</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003827</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623216</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490575019</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095048</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099083</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746433</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781704</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563578</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806982</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451126</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345289</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502574</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798538</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752282</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353169</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138687</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233493</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837943</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970268</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002941</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987496</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905546</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.5396634623833</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898528</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.154213684046222</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430544</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311885</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742037</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297395</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702031</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098829</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316442</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883125</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.768002308601</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802177</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895886</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712242</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553047</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780298</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33043,10 +33043,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34450,10 +34450,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407875</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265669</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923343</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302292</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412914</v>
       </c>
       <c r="O11" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845358881</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908565</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636256</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152081</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597779</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609579</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134007</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013185</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.306104600461</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525824</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859639</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127281</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306668</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443203</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170199</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934848</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675411</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226406</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451112</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789417</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407875</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265669</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427848</v>
       </c>
       <c r="M14" t="n">
-        <v>628.4456792198461</v>
+        <v>538.9211158302292</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>552.301835412914</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882215</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908565</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>390.1506645608413</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152081</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597779</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609579</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134007</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013185</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.306104600461</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525824</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859639</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127281</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306668</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443203</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170199</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934848</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675411</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226406</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451112</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789417</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407875</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265669</v>
       </c>
       <c r="L17" t="n">
-        <v>513.2623588395693</v>
+        <v>873.2513289427848</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302292</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>801.141912681613</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882215</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193738</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636256</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152081</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597779</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609579</v>
       </c>
       <c r="L18" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821339945</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901331</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.306104600461</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525824</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859639</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127281</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306668</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443203</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170199</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934848</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675411</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226406</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451112</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789417</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>318.3309425707625</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>897.0044190605952</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>631.8075074371745</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>740.8875257003393</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36846,16 +36846,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>713.9299079303039</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115028</v>
       </c>
       <c r="L32" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37092,7 +37092,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37548,7 +37548,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37560,13 +37560,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>684.4630967757917</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>323.786018525724</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>387.0442948008485</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38098,10 +38098,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
